--- a/Excel Books/pp_pk_outcome.xlsx
+++ b/Excel Books/pp_pk_outcome.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working\waccache\DM3PEPF000140E2\EXCELCNV\7751ea1c-b6ac-4506-b203-05688121466f\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE2B2E4E-D11E-4522-B513-75F643FF5FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDE2697E-07E0-4BE7-B26C-F7D4B5AEACF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" firstSheet="9" activeTab="9" xr2:uid="{88A55882-E8C1-43FF-B9E8-8AC69BBFBEA4}"/>
   </bookViews>
@@ -213,6 +213,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="19">
     <font>
       <sz val="11"/>
@@ -697,7 +700,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -706,6 +709,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2151,13 +2155,14 @@
   <dimension ref="A1:L281"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L6"/>
+      <selection activeCell="K2" sqref="K2:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="11" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -2211,13 +2216,13 @@
       <c r="J2">
         <v>5</v>
       </c>
-      <c r="K2">
-        <f>AVERAGEIF($E$2:$E$281,J2,$C$2:$C$281)</f>
-        <v>22.514444444444436</v>
-      </c>
-      <c r="L2">
-        <f>AVERAGEIF($E$2:$E$281,J2,$D$2:$D$281)</f>
-        <v>80.86611111111111</v>
+      <c r="K2" s="4">
+        <f>(AVERAGEIF($E$2:$E$281,J2,$C$2:$C$281))/100</f>
+        <v>0.22514444444444437</v>
+      </c>
+      <c r="L2" s="4">
+        <f>(AVERAGEIF($E$2:$E$281,J2,$D$2:$D$281))/100</f>
+        <v>0.80866111111111105</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2242,13 +2247,13 @@
       <c r="J3">
         <v>3</v>
       </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K6" si="0">AVERAGEIF($E$2:$E$281,J3,$C$2:$C$281)</f>
-        <v>21.838333333333331</v>
-      </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L6" si="1">AVERAGEIF($E$2:$E$281,J3,$D$2:$D$281)</f>
-        <v>81.722777777777779</v>
+      <c r="K3" s="4">
+        <f t="shared" ref="K3:K6" si="0">(AVERAGEIF($E$2:$E$281,J3,$C$2:$C$281))/100</f>
+        <v>0.21838333333333332</v>
+      </c>
+      <c r="L3" s="4">
+        <f t="shared" ref="L3:L6" si="1">(AVERAGEIF($E$2:$E$281,J3,$D$2:$D$281))/100</f>
+        <v>0.81722777777777778</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2273,13 +2278,13 @@
       <c r="J4">
         <v>2</v>
       </c>
-      <c r="K4">
-        <f t="shared" si="0"/>
-        <v>21.963888888888892</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="1"/>
-        <v>81.78</v>
+      <c r="K4" s="4">
+        <f t="shared" si="0"/>
+        <v>0.21963888888888891</v>
+      </c>
+      <c r="L4" s="4">
+        <f t="shared" si="1"/>
+        <v>0.81779999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2304,13 +2309,13 @@
       <c r="J5">
         <v>1</v>
       </c>
-      <c r="K5">
-        <f t="shared" si="0"/>
-        <v>21.077499999999986</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="1"/>
-        <v>80.635694444444482</v>
+      <c r="K5" s="4">
+        <f t="shared" si="0"/>
+        <v>0.21077499999999985</v>
+      </c>
+      <c r="L5" s="4">
+        <f t="shared" si="1"/>
+        <v>0.80635694444444483</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2335,13 +2340,13 @@
       <c r="J6">
         <v>0</v>
       </c>
-      <c r="K6">
-        <f t="shared" si="0"/>
-        <v>18.483676470588225</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="1"/>
-        <v>78.534632352941173</v>
+      <c r="K6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.18483676470588226</v>
+      </c>
+      <c r="L6" s="4">
+        <f t="shared" si="1"/>
+        <v>0.78534632352941169</v>
       </c>
     </row>
     <row r="7" spans="1:12">
